--- a/byhand/dvg_reo.xlsx_spitogatos_comparisson_09102025-1401.xlsx
+++ b/byhand/dvg_reo.xlsx_spitogatos_comparisson_09102025-1401.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\workspace\kfintech\RealEstateAI\byhand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED0AAB3-4EB6-4490-8FEF-36C9F35D17A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8353DB06-1A9B-4D1E-837A-FAC857EF9AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -3290,15 +3290,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3321,15 +3327,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3634,8 +3652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="L131" workbookViewId="0">
+      <selection activeCell="M154" sqref="M154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3643,6 +3661,12 @@
     <col min="2" max="2" width="10.44140625" customWidth="1"/>
     <col min="3" max="3" width="31.5546875" customWidth="1"/>
     <col min="13" max="13" width="55.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
@@ -3685,7 +3709,7 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -3754,10 +3778,11 @@
         <v>31</v>
       </c>
       <c r="N2">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="O2">
-        <v>1420</v>
+        <f>L2/N2</f>
+        <v>986.11111111111109</v>
       </c>
       <c r="P2">
         <v>1732.746385496336</v>
@@ -3778,7 +3803,8 @@
         <v>484.11497479278239</v>
       </c>
       <c r="V2">
-        <v>-0.64601675589605867</v>
+        <f>(O2-P2)/U2</f>
+        <v>-1.5422684966619966</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -3822,10 +3848,11 @@
         <v>41</v>
       </c>
       <c r="N3">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="O3">
-        <v>1780</v>
+        <f t="shared" ref="O3:O66" si="0">L3/N3</f>
+        <v>1561.4035087719299</v>
       </c>
       <c r="P3">
         <v>2472.5720009515971</v>
@@ -3846,7 +3873,8 @@
         <v>1030.419079592192</v>
       </c>
       <c r="V3">
-        <v>-0.67212653052357674</v>
+        <f t="shared" ref="V3:V49" si="1">(O3-P3)/U3</f>
+        <v>-0.88426981819890171</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -3890,10 +3918,11 @@
         <v>50</v>
       </c>
       <c r="N4">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O4">
-        <v>1850</v>
+        <f t="shared" si="0"/>
+        <v>1947.3684210526317</v>
       </c>
       <c r="P4">
         <v>2237.3361538484241</v>
@@ -3914,7 +3943,8 @@
         <v>706.16671823165029</v>
       </c>
       <c r="V4">
-        <v>-0.54850525215684587</v>
+        <f t="shared" si="1"/>
+        <v>-0.41062220196657828</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -3958,10 +3988,11 @@
         <v>57</v>
       </c>
       <c r="N5">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="O5">
-        <v>1480</v>
+        <f t="shared" si="0"/>
+        <v>1922.077922077922</v>
       </c>
       <c r="P5">
         <v>2327.5024008230662</v>
@@ -3982,7 +4013,8 @@
         <v>582.42522968013122</v>
       </c>
       <c r="V5">
-        <v>-1.455126525491548</v>
+        <f t="shared" si="1"/>
+        <v>-0.69609704058974897</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -4026,10 +4058,11 @@
         <v>64</v>
       </c>
       <c r="N6">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="O6">
-        <v>2440</v>
+        <f t="shared" si="0"/>
+        <v>2904.7619047619046</v>
       </c>
       <c r="P6">
         <v>2851.3280223833508</v>
@@ -4050,7 +4083,8 @@
         <v>465.28022026047131</v>
       </c>
       <c r="V6">
-        <v>-0.88404364611305164</v>
+        <f t="shared" si="1"/>
+        <v>0.11484236821552536</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
@@ -4094,10 +4128,11 @@
         <v>68</v>
       </c>
       <c r="N7">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="O7">
-        <v>2530</v>
+        <f t="shared" si="0"/>
+        <v>3085.3658536585367</v>
       </c>
       <c r="P7">
         <v>2851.3280223833508</v>
@@ -4118,7 +4153,8 @@
         <v>465.28022026047131</v>
       </c>
       <c r="V7">
-        <v>-0.69061182571540702</v>
+        <f t="shared" si="1"/>
+        <v>0.50300404161640011</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -4162,10 +4198,11 @@
         <v>71</v>
       </c>
       <c r="N8">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="O8">
-        <v>2450</v>
+        <f t="shared" si="0"/>
+        <v>2987.8048780487807</v>
       </c>
       <c r="P8">
         <v>2851.3280223833508</v>
@@ -4186,7 +4223,8 @@
         <v>465.28022026047131</v>
       </c>
       <c r="V8">
-        <v>-0.86255122162442444</v>
+        <f t="shared" si="1"/>
+        <v>0.29332185148345213</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -4230,10 +4268,11 @@
         <v>77</v>
       </c>
       <c r="N9">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="O9">
-        <v>1900</v>
+        <f t="shared" si="0"/>
+        <v>1376.8115942028985</v>
       </c>
       <c r="P9">
         <v>2333.6970654335369</v>
@@ -4254,7 +4293,8 @@
         <v>210.0494220816997</v>
       </c>
       <c r="V9">
-        <v>-2.0647381989218161</v>
+        <f t="shared" si="1"/>
+        <v>-4.5555253699220044</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -4298,10 +4338,11 @@
         <v>84</v>
       </c>
       <c r="N10">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="O10">
-        <v>1610</v>
+        <f t="shared" si="0"/>
+        <v>2367.6470588235293</v>
       </c>
       <c r="P10">
         <v>1972.6342096053579</v>
@@ -4322,7 +4363,8 @@
         <v>767.81594400306108</v>
       </c>
       <c r="V10">
-        <v>-0.4722931484266133</v>
+        <f t="shared" si="1"/>
+        <v>0.51446294167680962</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -4366,10 +4408,11 @@
         <v>91</v>
       </c>
       <c r="N11">
-        <v>100</v>
+        <v>782</v>
       </c>
       <c r="O11">
-        <v>10200</v>
+        <f t="shared" si="0"/>
+        <v>1304.3478260869565</v>
       </c>
       <c r="P11">
         <v>1835.383863905437</v>
@@ -4390,7 +4433,8 @@
         <v>628.24341337034275</v>
       </c>
       <c r="V11">
-        <v>13.314291814411289</v>
+        <f t="shared" si="1"/>
+        <v>-0.84527115846647238</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -4434,10 +4478,11 @@
         <v>98</v>
       </c>
       <c r="N12">
-        <v>100</v>
+        <v>310</v>
       </c>
       <c r="O12">
-        <v>1900</v>
+        <f t="shared" si="0"/>
+        <v>612.90322580645159</v>
       </c>
       <c r="P12">
         <v>1848.855666329112</v>
@@ -4458,7 +4503,8 @@
         <v>446.61219316096998</v>
       </c>
       <c r="V12">
-        <v>0.11451620545535331</v>
+        <f t="shared" si="1"/>
+        <v>-2.7673952020320072</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
@@ -4502,10 +4548,11 @@
         <v>105</v>
       </c>
       <c r="N13">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="O13">
-        <v>2330</v>
+        <f t="shared" si="0"/>
+        <v>1294.4444444444443</v>
       </c>
       <c r="P13">
         <v>2091.8309994230108</v>
@@ -4526,7 +4573,8 @@
         <v>874.4106113110164</v>
       </c>
       <c r="V13">
-        <v>0.27237661288201781</v>
+        <f t="shared" si="1"/>
+        <v>-0.91191317290058194</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -4570,10 +4618,11 @@
         <v>112</v>
       </c>
       <c r="N14">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="O14">
-        <v>5500</v>
+        <f t="shared" si="0"/>
+        <v>3055.5555555555557</v>
       </c>
       <c r="P14">
         <v>3536.6455418322989</v>
@@ -4594,7 +4643,8 @@
         <v>772.51977866206346</v>
       </c>
       <c r="V14">
-        <v>2.5414940981421328</v>
+        <f t="shared" si="1"/>
+        <v>-0.62275426411728763</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
@@ -4638,10 +4688,11 @@
         <v>119</v>
       </c>
       <c r="N15">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O15">
-        <v>1650</v>
+        <f t="shared" si="0"/>
+        <v>1527.7777777777778</v>
       </c>
       <c r="P15">
         <v>2130.735594035174</v>
@@ -4662,7 +4713,8 @@
         <v>1043.3099296275691</v>
       </c>
       <c r="V15">
-        <v>-0.4607792760170335</v>
+        <f t="shared" si="1"/>
+        <v>-0.5779278037472857</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -4706,10 +4758,11 @@
         <v>126</v>
       </c>
       <c r="N16">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="O16">
-        <v>710</v>
+        <f t="shared" si="0"/>
+        <v>797.75280898876406</v>
       </c>
       <c r="P16">
         <v>1717.9765206149391</v>
@@ -4730,7 +4783,8 @@
         <v>390.17243479218217</v>
       </c>
       <c r="V16">
-        <v>-2.5834129495893738</v>
+        <f t="shared" si="1"/>
+        <v>-2.3585051878826717</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
@@ -4774,10 +4828,11 @@
         <v>133</v>
       </c>
       <c r="N17">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>600</v>
+        <f t="shared" si="0"/>
+        <v>60000</v>
       </c>
       <c r="P17">
         <v>1634.0287538562011</v>
@@ -4798,7 +4853,8 @@
         <v>471.95749802873041</v>
       </c>
       <c r="V17">
-        <v>-2.1909361715305442</v>
+        <f t="shared" si="1"/>
+        <v>123.66785460539663</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
@@ -4839,10 +4895,11 @@
         <v>69000</v>
       </c>
       <c r="N18">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="O18">
-        <v>690</v>
+        <f t="shared" si="0"/>
+        <v>1210.5263157894738</v>
       </c>
       <c r="P18">
         <v>2448.9568027504238</v>
@@ -4863,7 +4920,8 @@
         <v>705.23028198793361</v>
       </c>
       <c r="V18">
-        <v>-2.4941594932540339</v>
+        <f t="shared" si="1"/>
+        <v>-1.7560653854369506</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
@@ -4907,10 +4965,11 @@
         <v>146</v>
       </c>
       <c r="N19">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="O19">
-        <v>1140</v>
+        <f t="shared" si="0"/>
+        <v>1583.3333333333333</v>
       </c>
       <c r="P19">
         <v>3065.2613046596061</v>
@@ -4931,7 +4990,8 @@
         <v>829.90707767773142</v>
       </c>
       <c r="V19">
-        <v>-2.319851651400449</v>
+        <f t="shared" si="1"/>
+        <v>-1.7856552994740618</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
@@ -4975,10 +5035,11 @@
         <v>153</v>
       </c>
       <c r="N20">
-        <v>100</v>
+        <v>419</v>
       </c>
       <c r="O20">
-        <v>7700</v>
+        <f t="shared" si="0"/>
+        <v>1837.708830548926</v>
       </c>
       <c r="P20">
         <v>4203.1238539944834</v>
@@ -4999,7 +5060,8 @@
         <v>1607.779192451407</v>
       </c>
       <c r="V20">
-        <v>2.174972883355812</v>
+        <f t="shared" si="1"/>
+        <v>-1.4712312701590389</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
@@ -5043,10 +5105,11 @@
         <v>160</v>
       </c>
       <c r="N21">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="O21">
-        <v>700</v>
+        <f t="shared" si="0"/>
+        <v>921.0526315789474</v>
       </c>
       <c r="P21">
         <v>2120.481072726478</v>
@@ -5067,7 +5130,8 @@
         <v>596.20301488933717</v>
       </c>
       <c r="V21">
-        <v>-2.382545940312188</v>
+        <f t="shared" si="1"/>
+        <v>-2.0117785572925349</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
@@ -5111,10 +5175,11 @@
         <v>165</v>
       </c>
       <c r="N22">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="O22">
-        <v>750</v>
+        <f t="shared" si="0"/>
+        <v>937.5</v>
       </c>
       <c r="P22">
         <v>1848.855666329112</v>
@@ -5135,7 +5200,8 @@
         <v>446.61219316096998</v>
       </c>
       <c r="V22">
-        <v>-2.4604246887031538</v>
+        <f t="shared" si="1"/>
+        <v>-2.0405973690033963</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -5179,10 +5245,11 @@
         <v>171</v>
       </c>
       <c r="N23">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="O23">
-        <v>1960</v>
+        <f t="shared" si="0"/>
+        <v>1781.8181818181818</v>
       </c>
       <c r="P23">
         <v>2047.169942243142</v>
@@ -5203,7 +5270,8 @@
         <v>357.17057359038182</v>
       </c>
       <c r="V23">
-        <v>-0.24405689798821989</v>
+        <f t="shared" si="1"/>
+        <v>-0.74292727353647225</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
@@ -5250,6 +5318,7 @@
         <v>100</v>
       </c>
       <c r="O24">
+        <f t="shared" si="0"/>
         <v>1040</v>
       </c>
       <c r="P24">
@@ -5271,7 +5340,8 @@
         <v>577.84513382998136</v>
       </c>
       <c r="V24">
-        <v>-1.262614094886148</v>
+        <f t="shared" si="1"/>
+        <v>-1.2626140948861482</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -5315,10 +5385,11 @@
         <v>184</v>
       </c>
       <c r="N25">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="O25">
-        <v>650</v>
+        <f t="shared" si="0"/>
+        <v>1065.5737704918033</v>
       </c>
       <c r="P25">
         <v>2327.5024008230662</v>
@@ -5339,7 +5410,8 @@
         <v>582.42522968013122</v>
       </c>
       <c r="V25">
-        <v>-2.880202153578328</v>
+        <f t="shared" si="1"/>
+        <v>-2.1666791993614627</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
@@ -5383,10 +5455,11 @@
         <v>190</v>
       </c>
       <c r="N26">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="O26">
-        <v>570</v>
+        <f t="shared" si="0"/>
+        <v>1117.6470588235295</v>
       </c>
       <c r="P26">
         <v>1716.550770067257</v>
@@ -5407,7 +5480,8 @@
         <v>543.21202617748031</v>
       </c>
       <c r="V26">
-        <v>-2.110687383221983</v>
+        <f t="shared" si="1"/>
+        <v>-1.1025229236144549</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
@@ -5451,10 +5525,11 @@
         <v>197</v>
       </c>
       <c r="N27">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="O27">
-        <v>530</v>
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
       <c r="P27">
         <v>2074.67032969294</v>
@@ -5475,7 +5550,8 @@
         <v>459.07842493648889</v>
       </c>
       <c r="V27">
-        <v>-3.3647199384432791</v>
+        <f t="shared" si="1"/>
+        <v>-2.3409297220657126</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
@@ -5519,10 +5595,11 @@
         <v>204</v>
       </c>
       <c r="N28">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="O28">
-        <v>700</v>
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
       <c r="P28">
         <v>1801.310326382383</v>
@@ -5543,7 +5620,8 @@
         <v>449.40154077221621</v>
       </c>
       <c r="V28">
-        <v>-2.450615377263679</v>
+        <f t="shared" si="1"/>
+        <v>-1.7830609236574366</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
@@ -5587,10 +5665,11 @@
         <v>211</v>
       </c>
       <c r="N29">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="O29">
-        <v>1910</v>
+        <f t="shared" si="0"/>
+        <v>2417.7215189873418</v>
       </c>
       <c r="P29">
         <v>3543.1598169442868</v>
@@ -5611,7 +5690,8 @@
         <v>1454.2283804648559</v>
       </c>
       <c r="V29">
-        <v>-1.12304218435225</v>
+        <f t="shared" si="1"/>
+        <v>-0.77390753273374402</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
@@ -5655,10 +5735,11 @@
         <v>216</v>
       </c>
       <c r="N30">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="O30">
-        <v>550</v>
+        <f t="shared" si="0"/>
+        <v>1057.6923076923076</v>
       </c>
       <c r="P30">
         <v>1848.855666329112</v>
@@ -5679,7 +5760,8 @@
         <v>446.61219316096998</v>
       </c>
       <c r="V30">
-        <v>-2.9082404963828949</v>
+        <f t="shared" si="1"/>
+        <v>-1.7714772922727833</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
@@ -5723,10 +5805,11 @@
         <v>222</v>
       </c>
       <c r="N31">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="O31">
-        <v>330</v>
+        <f t="shared" si="0"/>
+        <v>1650</v>
       </c>
       <c r="P31">
         <v>2326.962051379362</v>
@@ -5747,7 +5830,8 @@
         <v>546.57584618026158</v>
       </c>
       <c r="V31">
-        <v>-3.6535863509796589</v>
+        <f t="shared" si="1"/>
+        <v>-1.2385509826500802</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
@@ -5791,10 +5875,11 @@
         <v>227</v>
       </c>
       <c r="N32">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="O32">
-        <v>570</v>
+        <f t="shared" si="0"/>
+        <v>1096.1538461538462</v>
       </c>
       <c r="P32">
         <v>2327.5024008230662</v>
@@ -5815,7 +5900,8 @@
         <v>582.42522968013122</v>
       </c>
       <c r="V32">
-        <v>-3.0175588406228369</v>
+        <f t="shared" si="1"/>
+        <v>-2.1141744758301049</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
@@ -5859,10 +5945,11 @@
         <v>233</v>
       </c>
       <c r="N33">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="O33">
-        <v>1900</v>
+        <f t="shared" si="0"/>
+        <v>1696.4285714285713</v>
       </c>
       <c r="P33">
         <v>2251.195823661662</v>
@@ -5883,7 +5970,8 @@
         <v>759.30594018892373</v>
       </c>
       <c r="V33">
-        <v>-0.46252216013782399</v>
+        <f t="shared" si="1"/>
+        <v>-0.73062414353700222</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
@@ -5927,10 +6015,11 @@
         <v>240</v>
       </c>
       <c r="N34">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="O34">
-        <v>1340</v>
+        <f t="shared" si="0"/>
+        <v>1675</v>
       </c>
       <c r="P34">
         <v>2761.9747998229859</v>
@@ -5951,7 +6040,8 @@
         <v>908.98655746726195</v>
       </c>
       <c r="V34">
-        <v>-1.5643518467259621</v>
+        <f t="shared" si="1"/>
+        <v>-1.1958095429394009</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
@@ -5995,10 +6085,11 @@
         <v>245</v>
       </c>
       <c r="N35">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="O35">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>632.91139240506334</v>
       </c>
       <c r="P35">
         <v>2333.6970654335369</v>
@@ -6019,7 +6110,8 @@
         <v>210.0494220816997</v>
       </c>
       <c r="V35">
-        <v>-6.349444108038484</v>
+        <f t="shared" si="1"/>
+        <v>-8.0970738037400789</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
@@ -6063,10 +6155,11 @@
         <v>251</v>
       </c>
       <c r="N36">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="O36">
-        <v>2000</v>
+        <f t="shared" si="0"/>
+        <v>1769.9115044247787</v>
       </c>
       <c r="P36">
         <v>2249.5238095238101</v>
@@ -6087,7 +6180,8 @@
         <v>255.91860242225391</v>
       </c>
       <c r="V36">
-        <v>-0.97501239519941918</v>
+        <f t="shared" si="1"/>
+        <v>-1.8740814483962096</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
@@ -6131,10 +6225,11 @@
         <v>260</v>
       </c>
       <c r="N37">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="O37">
-        <v>700</v>
+        <f t="shared" si="0"/>
+        <v>1044.7761194029852</v>
       </c>
       <c r="P37">
         <v>2192.8874729377922</v>
@@ -6155,7 +6250,8 @@
         <v>1495.394427878085</v>
       </c>
       <c r="V37">
-        <v>-0.99832354936359458</v>
+        <f t="shared" si="1"/>
+        <v>-0.76776490010327159</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
@@ -6199,10 +6295,11 @@
         <v>267</v>
       </c>
       <c r="N38">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O38">
-        <v>750</v>
+        <f t="shared" si="0"/>
+        <v>824.17582417582423</v>
       </c>
       <c r="P38">
         <v>2030.1481896450571</v>
@@ -6223,7 +6320,8 @@
         <v>1164.8199741531901</v>
       </c>
       <c r="V38">
-        <v>-1.0990094761859741</v>
+        <f t="shared" si="1"/>
+        <v>-1.0353294004474469</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
@@ -6267,10 +6365,11 @@
         <v>274</v>
       </c>
       <c r="N39">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="O39">
-        <v>920</v>
+        <f t="shared" si="0"/>
+        <v>1045.4545454545455</v>
       </c>
       <c r="P39">
         <v>1945.7352463241609</v>
@@ -6291,7 +6390,8 @@
         <v>618.47519903606326</v>
       </c>
       <c r="V39">
-        <v>-1.65849050685111</v>
+        <f t="shared" si="1"/>
+        <v>-1.4556455978716134</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
@@ -6335,10 +6435,11 @@
         <v>281</v>
       </c>
       <c r="N40">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O40">
-        <v>1040</v>
+        <f t="shared" si="0"/>
+        <v>1386.6666666666667</v>
       </c>
       <c r="P40">
         <v>2629.081395724183</v>
@@ -6359,7 +6460,8 @@
         <v>1510.173712635639</v>
       </c>
       <c r="V40">
-        <v>-1.0522507327655899</v>
+        <f t="shared" si="1"/>
+        <v>-0.82269656706524519</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
@@ -6403,10 +6505,11 @@
         <v>288</v>
       </c>
       <c r="N41">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O41">
-        <v>2350</v>
+        <f t="shared" si="0"/>
+        <v>2303.9215686274511</v>
       </c>
       <c r="P41">
         <v>3198.297776917942</v>
@@ -6427,7 +6530,8 @@
         <v>1147.7110188199049</v>
       </c>
       <c r="V41">
-        <v>-0.73912140164880102</v>
+        <f t="shared" si="1"/>
+        <v>-0.77926951438533987</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
@@ -6471,10 +6575,11 @@
         <v>294</v>
       </c>
       <c r="N42">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O42">
-        <v>1600</v>
+        <f t="shared" si="0"/>
+        <v>1584.1584158415842</v>
       </c>
       <c r="P42">
         <v>1862.0661480635031</v>
@@ -6495,7 +6600,8 @@
         <v>439.36919982673732</v>
       </c>
       <c r="V42">
-        <v>-0.59645998892696062</v>
+        <f t="shared" si="1"/>
+        <v>-0.63251527947682762</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
@@ -6539,10 +6645,11 @@
         <v>301</v>
       </c>
       <c r="N43">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="O43">
-        <v>550</v>
+        <f t="shared" si="0"/>
+        <v>1279.0697674418604</v>
       </c>
       <c r="P43">
         <v>1919.139617414434</v>
@@ -6563,7 +6670,8 @@
         <v>1154.227805632423</v>
       </c>
       <c r="V43">
-        <v>-1.1861953166725669</v>
+        <f t="shared" si="1"/>
+        <v>-0.55454377970202107</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
@@ -6607,10 +6715,11 @@
         <v>307</v>
       </c>
       <c r="N44">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="O44">
-        <v>1050</v>
+        <f t="shared" si="0"/>
+        <v>1166.6666666666667</v>
       </c>
       <c r="P44">
         <v>2025.470243593651</v>
@@ -6631,7 +6740,8 @@
         <v>576.27166844126816</v>
       </c>
       <c r="V44">
-        <v>-1.692726359829831</v>
+        <f t="shared" si="1"/>
+        <v>-1.4902755487701214</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
@@ -6675,10 +6785,11 @@
         <v>314</v>
       </c>
       <c r="N45">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="O45">
-        <v>1230</v>
+        <f t="shared" si="0"/>
+        <v>1863.6363636363637</v>
       </c>
       <c r="P45">
         <v>2881.9769410364302</v>
@@ -6699,7 +6810,8 @@
         <v>1058.3661033090341</v>
       </c>
       <c r="V45">
-        <v>-1.560874763346485</v>
+        <f t="shared" si="1"/>
+        <v>-0.96218177643461378</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
@@ -6743,10 +6855,11 @@
         <v>321</v>
       </c>
       <c r="N46">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O46">
-        <v>1130</v>
+        <f t="shared" si="0"/>
+        <v>1738.4615384615386</v>
       </c>
       <c r="P46">
         <v>1857.7570882380901</v>
@@ -6767,7 +6880,8 @@
         <v>454.70383948840379</v>
       </c>
       <c r="V46">
-        <v>-1.6005079021477009</v>
+        <f t="shared" si="1"/>
+        <v>-0.26235879140755286</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
@@ -6811,10 +6925,11 @@
         <v>328</v>
       </c>
       <c r="N47">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="O47">
-        <v>1370</v>
+        <f t="shared" si="0"/>
+        <v>1122.950819672131</v>
       </c>
       <c r="P47">
         <v>2425.5504970995189</v>
@@ -6835,7 +6950,8 @@
         <v>796.89827549761355</v>
       </c>
       <c r="V47">
-        <v>-1.32457369974906</v>
+        <f t="shared" si="1"/>
+        <v>-1.6345871455349745</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
@@ -6879,10 +6995,11 @@
         <v>334</v>
       </c>
       <c r="N48">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="O48">
-        <v>750</v>
+        <f t="shared" si="0"/>
+        <v>937.5</v>
       </c>
       <c r="P48">
         <v>2096.9660422927209</v>
@@ -6903,7 +7020,8 @@
         <v>1158.0788917192299</v>
       </c>
       <c r="V48">
-        <v>-1.1631038713546351</v>
+        <f t="shared" si="1"/>
+        <v>-1.001197803175077</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.3">
@@ -6947,10 +7065,11 @@
         <v>342</v>
       </c>
       <c r="N49">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="O49">
-        <v>1450</v>
+        <f t="shared" si="0"/>
+        <v>1380.952380952381</v>
       </c>
       <c r="P49">
         <v>1658.783096286397</v>
@@ -6971,7 +7090,8 @@
         <v>548.09859512837022</v>
       </c>
       <c r="V49">
-        <v>-0.38092251675539901</v>
+        <f t="shared" si="1"/>
+        <v>-0.50689915610702363</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.3">
@@ -7015,10 +7135,11 @@
         <v>350</v>
       </c>
       <c r="N50">
-        <v>100</v>
+        <v>283</v>
       </c>
       <c r="O50">
-        <v>3210</v>
+        <f t="shared" si="0"/>
+        <v>1134.2756183745582</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.3">
@@ -7062,10 +7183,11 @@
         <v>356</v>
       </c>
       <c r="N51">
-        <v>100</v>
+        <v>224</v>
       </c>
       <c r="O51">
-        <v>2000</v>
+        <f t="shared" si="0"/>
+        <v>892.85714285714289</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.3">
@@ -7109,10 +7231,11 @@
         <v>362</v>
       </c>
       <c r="N52">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="O52">
-        <v>2900</v>
+        <f t="shared" si="0"/>
+        <v>1812.5</v>
       </c>
       <c r="P52">
         <v>3310.606060606061</v>
@@ -7133,7 +7256,8 @@
         <v>1682.057040095272</v>
       </c>
       <c r="V52">
-        <v>-0.2441094747790501</v>
+        <f t="shared" ref="V52:V55" si="2">(O52-P52)/U52</f>
+        <v>-0.89063927375566765</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.3">
@@ -7177,10 +7301,11 @@
         <v>371</v>
       </c>
       <c r="N53">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O53">
-        <v>2080</v>
+        <f t="shared" si="0"/>
+        <v>1925.9259259259259</v>
       </c>
       <c r="P53">
         <v>4689.3017768927912</v>
@@ -7201,7 +7326,8 @@
         <v>1201.1255839087589</v>
       </c>
       <c r="V53">
-        <v>-2.1723804836472471</v>
+        <f t="shared" si="2"/>
+        <v>-2.3006552253879717</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.3">
@@ -7245,10 +7371,11 @@
         <v>378</v>
       </c>
       <c r="N54">
-        <v>100</v>
+        <v>337</v>
       </c>
       <c r="O54">
-        <v>4800</v>
+        <f t="shared" si="0"/>
+        <v>1424.3323442136498</v>
       </c>
       <c r="P54">
         <v>5797.2538631204206</v>
@@ -7269,7 +7396,8 @@
         <v>2024.0686207746339</v>
       </c>
       <c r="V54">
-        <v>-0.4926976550522088</v>
+        <f t="shared" si="2"/>
+        <v>-2.1604610999963056</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.3">
@@ -7313,10 +7441,11 @@
         <v>386</v>
       </c>
       <c r="N55">
-        <v>100</v>
+        <v>282</v>
       </c>
       <c r="O55">
-        <v>3950</v>
+        <f t="shared" si="0"/>
+        <v>1400.7092198581561</v>
       </c>
       <c r="P55">
         <v>4042.063492063492</v>
@@ -7337,7 +7466,8 @@
         <v>784.11212311603492</v>
       </c>
       <c r="V55">
-        <v>-0.1174111320937558</v>
+        <f t="shared" si="2"/>
+        <v>-3.3685925702929884</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.3">
@@ -7381,10 +7511,11 @@
         <v>395</v>
       </c>
       <c r="N56">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="O56">
-        <v>3200</v>
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.3">
@@ -7428,10 +7559,11 @@
         <v>401</v>
       </c>
       <c r="N57">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="O57">
-        <v>1090</v>
+        <f t="shared" si="0"/>
+        <v>1397.4358974358975</v>
       </c>
       <c r="P57">
         <v>1526.077295761708</v>
@@ -7452,7 +7584,8 @@
         <v>531.95916873134888</v>
       </c>
       <c r="V57">
-        <v>-0.81975708173560258</v>
+        <f t="shared" ref="V57:V60" si="3">(O57-P57)/U57</f>
+        <v>-0.24182569995475967</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.3">
@@ -7496,10 +7629,11 @@
         <v>408</v>
       </c>
       <c r="N58">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O58">
-        <v>1350</v>
+        <f t="shared" si="0"/>
+        <v>1323.5294117647059</v>
       </c>
       <c r="P58">
         <v>1526.077295761708</v>
@@ -7520,7 +7654,8 @@
         <v>531.95916873134888</v>
       </c>
       <c r="V58">
-        <v>-0.33099776469992648</v>
+        <f t="shared" si="3"/>
+        <v>-0.38075832865152343</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.3">
@@ -7564,10 +7699,11 @@
         <v>414</v>
       </c>
       <c r="N59">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="O59">
-        <v>1790</v>
+        <f t="shared" si="0"/>
+        <v>1543.1034482758621</v>
       </c>
       <c r="P59">
         <v>1612.7502085777419</v>
@@ -7588,7 +7724,8 @@
         <v>389.79565892358909</v>
       </c>
       <c r="V59">
-        <v>0.45472489845507502</v>
+        <f t="shared" si="3"/>
+        <v>-0.17867505372996603</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.3">
@@ -7632,10 +7769,11 @@
         <v>420</v>
       </c>
       <c r="N60">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="O60">
-        <v>900</v>
+        <f t="shared" si="0"/>
+        <v>825.6880733944954</v>
       </c>
       <c r="P60">
         <v>1135.7157689869441</v>
@@ -7656,7 +7794,8 @@
         <v>681.59926109410253</v>
       </c>
       <c r="V60">
-        <v>-0.34582750076426633</v>
+        <f>(O60-P60)/U60</f>
+        <v>-0.45485333287303237</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.3">
@@ -7700,10 +7839,11 @@
         <v>428</v>
       </c>
       <c r="N61">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="O61">
-        <v>5030</v>
+        <f t="shared" si="0"/>
+        <v>2317.9723502304146</v>
       </c>
       <c r="P61">
         <v>6401.0433855908186</v>
@@ -7724,7 +7864,8 @@
         <v>938.29464444222333</v>
       </c>
       <c r="V61">
-        <v>-1.461207727990226</v>
+        <f t="shared" ref="V61" si="4">(O61-P61)/U61</f>
+        <v>-4.3515872754316076</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.3">
@@ -7768,10 +7909,11 @@
         <v>428</v>
       </c>
       <c r="N62">
-        <v>100</v>
+        <v>324</v>
       </c>
       <c r="O62">
-        <v>10970</v>
+        <f t="shared" si="0"/>
+        <v>3385.8024691358023</v>
       </c>
       <c r="P62">
         <v>6401.0433855908186</v>
@@ -7792,7 +7934,8 @@
         <v>938.29464444222333</v>
       </c>
       <c r="V62">
-        <v>4.8694262953245717</v>
+        <f t="shared" ref="V62:V71" si="5">(O62-P62)/U62</f>
+        <v>-3.2135331202358617</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.3">
@@ -7836,10 +7979,11 @@
         <v>437</v>
       </c>
       <c r="N63">
-        <v>100</v>
+        <v>308</v>
       </c>
       <c r="O63">
-        <v>7650</v>
+        <f t="shared" si="0"/>
+        <v>2483.7662337662337</v>
       </c>
       <c r="P63">
         <v>981.59509202453989</v>
@@ -7898,10 +8042,11 @@
         <v>445</v>
       </c>
       <c r="N64">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="O64">
-        <v>1290</v>
+        <f t="shared" si="0"/>
+        <v>1869.5652173913043</v>
       </c>
       <c r="P64">
         <v>2714.187613845384</v>
@@ -7922,7 +8067,8 @@
         <v>853.5861524394013</v>
       </c>
       <c r="V64">
-        <v>-1.6684755367402611</v>
+        <f t="shared" si="5"/>
+        <v>-0.98949870969707665</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.3">
@@ -7966,10 +8112,11 @@
         <v>453</v>
       </c>
       <c r="N65">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="O65">
-        <v>520</v>
+        <f t="shared" si="0"/>
+        <v>896.55172413793105</v>
       </c>
       <c r="P65">
         <v>2166.743693567063</v>
@@ -7990,7 +8137,8 @@
         <v>977.48718795052901</v>
       </c>
       <c r="V65">
-        <v>-1.6846703607642639</v>
+        <f t="shared" si="5"/>
+        <v>-1.2994461565192574</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.3">
@@ -8034,10 +8182,11 @@
         <v>460</v>
       </c>
       <c r="N66">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="O66">
-        <v>1020</v>
+        <f t="shared" si="0"/>
+        <v>1672.1311475409836</v>
       </c>
       <c r="P66">
         <v>2591.534390572584</v>
@@ -8058,7 +8207,8 @@
         <v>1231.6215430190359</v>
       </c>
       <c r="V66">
-        <v>-1.2759880658796621</v>
+        <f t="shared" si="5"/>
+        <v>-0.74649818220773856</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.3">
@@ -8102,10 +8252,11 @@
         <v>468</v>
       </c>
       <c r="N67">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O67">
-        <v>2420</v>
+        <f t="shared" ref="O67:O130" si="6">L67/N67</f>
+        <v>2261.6822429906542</v>
       </c>
       <c r="P67">
         <v>5899.1060670892484</v>
@@ -8126,7 +8277,8 @@
         <v>1853.5031773189301</v>
       </c>
       <c r="V67">
-        <v>-1.8770434869832451</v>
+        <f t="shared" si="5"/>
+        <v>-1.9624589094905593</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.3">
@@ -8170,10 +8322,11 @@
         <v>475</v>
       </c>
       <c r="N68">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="O68">
-        <v>2950</v>
+        <f t="shared" si="6"/>
+        <v>3352.2727272727275</v>
       </c>
       <c r="P68">
         <v>6020.8529312034334</v>
@@ -8194,7 +8347,8 @@
         <v>2783.1016890533751</v>
       </c>
       <c r="V68">
-        <v>-1.103392284687928</v>
+        <f t="shared" si="5"/>
+        <v>-0.95885113160862556</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.3">
@@ -8238,10 +8392,11 @@
         <v>482</v>
       </c>
       <c r="N69">
-        <v>100</v>
+        <v>281</v>
       </c>
       <c r="O69">
-        <v>9500</v>
+        <f t="shared" si="6"/>
+        <v>3380.7829181494662</v>
       </c>
       <c r="P69">
         <v>6133.9282529248276</v>
@@ -8262,7 +8417,8 @@
         <v>3008.8374826268491</v>
       </c>
       <c r="V69">
-        <v>1.118728334950295</v>
+        <f t="shared" si="5"/>
+        <v>-0.91501962158878147</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.3">
@@ -8306,10 +8462,11 @@
         <v>489</v>
       </c>
       <c r="N70">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O70">
-        <v>2400</v>
+        <f t="shared" si="6"/>
+        <v>2330.0970873786409</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.3">
@@ -8353,10 +8510,11 @@
         <v>498</v>
       </c>
       <c r="N71">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="O71">
-        <v>1000</v>
+        <f t="shared" si="6"/>
+        <v>1562.5</v>
       </c>
       <c r="P71">
         <v>1351.0576923076919</v>
@@ -8377,7 +8535,8 @@
         <v>338.49114818034712</v>
       </c>
       <c r="V71">
-        <v>-1.037125177999189</v>
+        <f t="shared" si="5"/>
+        <v>0.62466126168726932</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.3">
@@ -8421,10 +8580,11 @@
         <v>506</v>
       </c>
       <c r="N72">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="O72">
-        <v>2950</v>
+        <f t="shared" si="6"/>
+        <v>1260.6837606837607</v>
       </c>
       <c r="P72">
         <v>1750</v>
@@ -8486,10 +8646,11 @@
         <v>513</v>
       </c>
       <c r="N73">
-        <v>100</v>
+        <v>531</v>
       </c>
       <c r="O73">
-        <v>6400</v>
+        <f t="shared" si="6"/>
+        <v>1205.2730696798494</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.3">
@@ -8533,10 +8694,11 @@
         <v>519</v>
       </c>
       <c r="N74">
-        <v>100</v>
+        <v>619</v>
       </c>
       <c r="O74">
-        <v>2650</v>
+        <f t="shared" si="6"/>
+        <v>428.10985460420034</v>
       </c>
       <c r="P74">
         <v>3590.211312230475</v>
@@ -8557,7 +8719,8 @@
         <v>1244.315476839223</v>
       </c>
       <c r="V74">
-        <v>-0.75560525423888114</v>
+        <f t="shared" ref="V74:V94" si="7">(O74-P74)/U74</f>
+        <v>-2.5412377459601809</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.3">
@@ -8601,10 +8764,11 @@
         <v>526</v>
       </c>
       <c r="N75">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="O75">
-        <v>1440</v>
+        <f t="shared" si="6"/>
+        <v>1800</v>
       </c>
       <c r="P75">
         <v>2084.256628787879</v>
@@ -8625,7 +8789,8 @@
         <v>807.3447441006972</v>
       </c>
       <c r="V75">
-        <v>-0.79799445465582075</v>
+        <f t="shared" si="7"/>
+        <v>-0.35208828801445036</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.3">
@@ -8669,10 +8834,11 @@
         <v>531</v>
       </c>
       <c r="N76">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="O76">
-        <v>1580</v>
+        <f t="shared" si="6"/>
+        <v>1795.4545454545455</v>
       </c>
       <c r="P76">
         <v>1897.890750692475</v>
@@ -8693,7 +8859,8 @@
         <v>219.57386446622601</v>
       </c>
       <c r="V76">
-        <v>-1.447762243768185</v>
+        <f t="shared" si="7"/>
+        <v>-0.46652275983276598</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.3">
@@ -8737,10 +8904,11 @@
         <v>540</v>
       </c>
       <c r="N77">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="O77">
-        <v>1230</v>
+        <f t="shared" si="6"/>
+        <v>1171.4285714285713</v>
       </c>
       <c r="P77">
         <v>1645.496894409938</v>
@@ -8761,7 +8929,8 @@
         <v>670.43385185171746</v>
       </c>
       <c r="V77">
-        <v>-0.61974330989156989</v>
+        <f t="shared" si="7"/>
+        <v>-0.70710678118654768</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.3">
@@ -8805,10 +8974,11 @@
         <v>547</v>
       </c>
       <c r="N78">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="O78">
-        <v>770</v>
+        <f t="shared" si="6"/>
+        <v>916.66666666666663</v>
       </c>
       <c r="P78">
         <v>919.82214572576015</v>
@@ -8829,7 +8999,8 @@
         <v>5.3890064269246407</v>
       </c>
       <c r="V78">
-        <v>-27.80144127815776</v>
+        <f t="shared" si="7"/>
+        <v>-0.58554004376911994</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.3">
@@ -8873,10 +9044,11 @@
         <v>555</v>
       </c>
       <c r="N79">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="O79">
-        <v>1220</v>
+        <f t="shared" si="6"/>
+        <v>1311.8279569892472</v>
       </c>
       <c r="P79">
         <v>1831.96617158749</v>
@@ -8897,7 +9069,8 @@
         <v>705.92070280673647</v>
       </c>
       <c r="V79">
-        <v>-0.86690497835566538</v>
+        <f t="shared" si="7"/>
+        <v>-0.73682243987203699</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.3">
@@ -8941,10 +9114,11 @@
         <v>563</v>
       </c>
       <c r="N80">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="O80">
-        <v>1540</v>
+        <f t="shared" si="6"/>
+        <v>2444.4444444444443</v>
       </c>
       <c r="P80">
         <v>2410.0244798774211</v>
@@ -8965,7 +9139,8 @@
         <v>337.77993834688971</v>
       </c>
       <c r="V80">
-        <v>-2.5757138927058851</v>
+        <f t="shared" si="7"/>
+        <v>0.10190055909026491</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.3">
@@ -9009,10 +9184,11 @@
         <v>568</v>
       </c>
       <c r="N81">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="O81">
-        <v>2455</v>
+        <f t="shared" si="6"/>
+        <v>2888.2352941176468</v>
       </c>
       <c r="P81">
         <v>2410.0244798774211</v>
@@ -9033,7 +9209,8 @@
         <v>337.77993834688971</v>
       </c>
       <c r="V81">
-        <v>0.13315035920336529</v>
+        <f t="shared" si="7"/>
+        <v>1.4157466443407241</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.3">
@@ -9077,10 +9254,11 @@
         <v>574</v>
       </c>
       <c r="N82">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="O82">
-        <v>1100</v>
+        <f t="shared" si="6"/>
+        <v>2115.3846153846152</v>
       </c>
       <c r="P82">
         <v>2529.411764705882</v>
@@ -9101,7 +9279,8 @@
         <v>345.05904414264609</v>
       </c>
       <c r="V82">
-        <v>-4.1425135465076197</v>
+        <f t="shared" si="7"/>
+        <v>-1.1998733444300318</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.3">
@@ -9145,10 +9324,11 @@
         <v>581</v>
       </c>
       <c r="N83">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="O83">
-        <v>2400</v>
+        <f t="shared" si="6"/>
+        <v>2926.8292682926831</v>
       </c>
       <c r="P83">
         <v>3756.801120603398</v>
@@ -9169,7 +9349,8 @@
         <v>788.65731375851624</v>
       </c>
       <c r="V83">
-        <v>-1.720393759029851</v>
+        <f t="shared" si="7"/>
+        <v>-1.0523859195007086</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.3">
@@ -9213,10 +9394,11 @@
         <v>589</v>
       </c>
       <c r="N84">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O84">
-        <v>1600</v>
+        <f t="shared" si="6"/>
+        <v>1481.4814814814815</v>
       </c>
       <c r="P84">
         <v>2478.3713827074262</v>
@@ -9237,7 +9419,8 @@
         <v>697.82040318393615</v>
       </c>
       <c r="V84">
-        <v>-1.258735598299638</v>
+        <f t="shared" si="7"/>
+        <v>-1.4285766032025546</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.3">
@@ -9281,10 +9464,11 @@
         <v>597</v>
       </c>
       <c r="N85">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="O85">
-        <v>490</v>
+        <f t="shared" si="6"/>
+        <v>765.625</v>
       </c>
       <c r="P85">
         <v>307.01478905789168</v>
@@ -9305,7 +9489,8 @@
         <v>79.122452570246125</v>
       </c>
       <c r="V85">
-        <v>2.312683757870766</v>
+        <f t="shared" si="7"/>
+        <v>5.7962082322327806</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.3">
@@ -9349,10 +9534,11 @@
         <v>604</v>
       </c>
       <c r="N86">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="O86">
-        <v>1870</v>
+        <f t="shared" si="6"/>
+        <v>869.76744186046517</v>
       </c>
       <c r="P86">
         <v>1330.819507290096</v>
@@ -9373,7 +9559,8 @@
         <v>95.992362353944031</v>
       </c>
       <c r="V86">
-        <v>5.6169103404480509</v>
+        <f t="shared" si="7"/>
+        <v>-4.8030078031587022</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.3">
@@ -9417,10 +9604,11 @@
         <v>611</v>
       </c>
       <c r="N87">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="O87">
-        <v>1530</v>
+        <f t="shared" si="6"/>
+        <v>1224</v>
       </c>
       <c r="P87">
         <v>1362.0646173368009</v>
@@ -9441,7 +9629,8 @@
         <v>187.3026317354088</v>
       </c>
       <c r="V87">
-        <v>0.89659916204718015</v>
+        <f t="shared" si="7"/>
+        <v>-0.73712054154068962</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.3">
@@ -9485,10 +9674,11 @@
         <v>618</v>
       </c>
       <c r="N88">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="O88">
-        <v>248</v>
+        <f t="shared" si="6"/>
+        <v>918.51851851851848</v>
       </c>
       <c r="P88">
         <v>1444.720044009732</v>
@@ -9509,7 +9699,8 @@
         <v>516.18867532657396</v>
       </c>
       <c r="V88">
-        <v>-2.3183771772067852</v>
+        <f t="shared" si="7"/>
+        <v>-1.0193976556310631</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.3">
@@ -9553,10 +9744,11 @@
         <v>625</v>
       </c>
       <c r="N89">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="O89">
-        <v>3350</v>
+        <f t="shared" si="6"/>
+        <v>2637.7952755905512</v>
       </c>
       <c r="P89">
         <v>2571.2900981847511</v>
@@ -9577,7 +9769,8 @@
         <v>560.77568093221669</v>
       </c>
       <c r="V89">
-        <v>1.388629942940367</v>
+        <f t="shared" si="7"/>
+        <v>0.11859497418868799</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.3">
@@ -9621,10 +9814,11 @@
         <v>632</v>
       </c>
       <c r="N90">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="O90">
-        <v>860</v>
+        <f t="shared" si="6"/>
+        <v>1343.75</v>
       </c>
       <c r="P90">
         <v>2568.3155273766201</v>
@@ -9645,7 +9839,8 @@
         <v>752.7437680028238</v>
       </c>
       <c r="V90">
-        <v>-2.269451571693665</v>
+        <f t="shared" si="7"/>
+        <v>-1.6268026112333438</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.3">
@@ -9689,10 +9884,11 @@
         <v>640</v>
       </c>
       <c r="N91">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="O91">
-        <v>1750</v>
+        <f t="shared" si="6"/>
+        <v>1650.9433962264152</v>
       </c>
       <c r="P91">
         <v>2690.4882556105181</v>
@@ -9713,7 +9909,8 @@
         <v>869.73661094820773</v>
       </c>
       <c r="V91">
-        <v>-1.0813483573896869</v>
+        <f t="shared" si="7"/>
+        <v>-1.1952410031937901</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.3">
@@ -9757,10 +9954,11 @@
         <v>648</v>
       </c>
       <c r="N92">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="O92">
-        <v>2300</v>
+        <f t="shared" si="6"/>
+        <v>2446.8085106382978</v>
       </c>
       <c r="P92">
         <v>3142.7669974616219</v>
@@ -9781,7 +9979,8 @@
         <v>779.88094820844219</v>
       </c>
       <c r="V92">
-        <v>-1.080635447497009</v>
+        <f t="shared" si="7"/>
+        <v>-0.89239067632321789</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.3">
@@ -9825,10 +10024,11 @@
         <v>657</v>
       </c>
       <c r="N93">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O93">
-        <v>600</v>
+        <f t="shared" si="6"/>
+        <v>800</v>
       </c>
       <c r="P93">
         <v>1308.7952170518331</v>
@@ -9849,7 +10049,8 @@
         <v>730.78670718905585</v>
       </c>
       <c r="V93">
-        <v>-0.96990710159218319</v>
+        <f t="shared" si="7"/>
+        <v>-0.69622943609482879</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.3">
@@ -9893,10 +10094,11 @@
         <v>665</v>
       </c>
       <c r="N94">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="O94">
-        <v>4000</v>
+        <f t="shared" si="6"/>
+        <v>2453.9877300613498</v>
       </c>
       <c r="P94">
         <v>2653.1258884744102</v>
@@ -9917,7 +10119,8 @@
         <v>597.41447523918157</v>
       </c>
       <c r="V94">
-        <v>2.2545053180814771</v>
+        <f t="shared" si="7"/>
+        <v>-0.33333333333333315</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.3">
@@ -9961,10 +10164,11 @@
         <v>672</v>
       </c>
       <c r="N95">
-        <v>100</v>
+        <v>298</v>
       </c>
       <c r="O95">
-        <v>4850</v>
+        <f t="shared" si="6"/>
+        <v>1627.5167785234898</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.3">
@@ -10008,10 +10212,11 @@
         <v>675</v>
       </c>
       <c r="N96">
-        <v>100</v>
+        <v>292</v>
       </c>
       <c r="O96">
-        <v>4600</v>
+        <f t="shared" si="6"/>
+        <v>1575.3424657534247</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.3">
@@ -10055,10 +10260,11 @@
         <v>681</v>
       </c>
       <c r="N97">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="O97">
-        <v>4700</v>
+        <f t="shared" si="6"/>
+        <v>2107.6233183856502</v>
       </c>
       <c r="P97">
         <v>4527.9049403076706</v>
@@ -10079,7 +10285,8 @@
         <v>1594.476003255962</v>
       </c>
       <c r="V97">
-        <v>0.10793204748199831</v>
+        <f t="shared" ref="V97:V106" si="8">(O97-P97)/U97</f>
+        <v>-1.5179166177350687</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.3">
@@ -10123,10 +10330,11 @@
         <v>688</v>
       </c>
       <c r="N98">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O98">
-        <v>8450</v>
+        <f t="shared" si="6"/>
+        <v>4225</v>
       </c>
       <c r="P98">
         <v>4020.1005025125628</v>
@@ -10185,10 +10393,11 @@
         <v>696</v>
       </c>
       <c r="N99">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="O99">
-        <v>1200</v>
+        <f t="shared" si="6"/>
+        <v>1578.9473684210527</v>
       </c>
       <c r="P99">
         <v>1674.833307637615</v>
@@ -10209,7 +10418,8 @@
         <v>271.23185259498109</v>
       </c>
       <c r="V99">
-        <v>-1.7506546635090929</v>
+        <f t="shared" si="8"/>
+        <v>-0.35352020162522968</v>
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.3">
@@ -10253,10 +10463,11 @@
         <v>703</v>
       </c>
       <c r="N100">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O100">
-        <v>1110</v>
+        <f t="shared" si="6"/>
+        <v>1077.6699029126214</v>
       </c>
       <c r="P100">
         <v>1289.68253968254</v>
@@ -10277,7 +10488,8 @@
         <v>701.49482260570198</v>
       </c>
       <c r="V100">
-        <v>-0.25614236041701499</v>
+        <f t="shared" si="8"/>
+        <v>-0.30222979548501555</v>
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.3">
@@ -10321,10 +10533,11 @@
         <v>709</v>
       </c>
       <c r="N101">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="O101">
-        <v>750</v>
+        <f t="shared" si="6"/>
+        <v>986.84210526315792</v>
       </c>
       <c r="P101">
         <v>1113.5122245990531</v>
@@ -10345,7 +10558,8 @@
         <v>426.5545965425963</v>
       </c>
       <c r="V101">
-        <v>-0.85220562044219417</v>
+        <f t="shared" si="8"/>
+        <v>-0.29696109328702475</v>
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.3">
@@ -10389,10 +10603,11 @@
         <v>716</v>
       </c>
       <c r="N102">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="O102">
-        <v>1200</v>
+        <f t="shared" si="6"/>
+        <v>1290.3225806451612</v>
       </c>
       <c r="P102">
         <v>1620.66464203092</v>
@@ -10413,7 +10628,8 @@
         <v>519.7238297416427</v>
       </c>
       <c r="V102">
-        <v>-0.80940033525119393</v>
+        <f t="shared" si="8"/>
+        <v>-0.63561076572142849</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.3">
@@ -10457,10 +10673,11 @@
         <v>724</v>
       </c>
       <c r="N103">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="O103">
-        <v>750</v>
+        <f t="shared" si="6"/>
+        <v>1027.3972602739725</v>
       </c>
       <c r="P103">
         <v>1431.904831164841</v>
@@ -10481,7 +10698,8 @@
         <v>531.02300099893682</v>
       </c>
       <c r="V103">
-        <v>-1.284134265148726</v>
+        <f t="shared" si="8"/>
+        <v>-0.76175150629996602</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.3">
@@ -10525,10 +10743,11 @@
         <v>732</v>
       </c>
       <c r="N104">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="O104">
-        <v>850</v>
+        <f t="shared" si="6"/>
+        <v>1666.6666666666667</v>
       </c>
       <c r="P104">
         <v>551.36539264828741</v>
@@ -10549,7 +10768,8 @@
         <v>98.740724834744867</v>
       </c>
       <c r="V104">
-        <v>3.0244319945140719</v>
+        <f t="shared" si="8"/>
+        <v>11.29525103127385</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.3">
@@ -10593,10 +10813,11 @@
         <v>739</v>
       </c>
       <c r="N105">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="O105">
-        <v>1630</v>
+        <f t="shared" si="6"/>
+        <v>848.95833333333337</v>
       </c>
       <c r="P105">
         <v>1021.23566928714</v>
@@ -10617,7 +10838,8 @@
         <v>216.3745581411543</v>
       </c>
       <c r="V105">
-        <v>2.8134746337216132</v>
+        <f t="shared" si="8"/>
+        <v>-0.79619959681867791</v>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.3">
@@ -10661,10 +10883,11 @@
         <v>747</v>
       </c>
       <c r="N106">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O106">
-        <v>970</v>
+        <f t="shared" si="6"/>
+        <v>1492.3076923076924</v>
       </c>
       <c r="P106">
         <v>1976.7577045047981</v>
@@ -10685,7 +10908,8 @@
         <v>879.219887548099</v>
       </c>
       <c r="V106">
-        <v>-1.145057930061576</v>
+        <f t="shared" si="8"/>
+        <v>-0.55099983412352371</v>
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.3">
@@ -10729,10 +10953,11 @@
         <v>755</v>
       </c>
       <c r="N107">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="O107">
-        <v>550</v>
+        <f t="shared" si="6"/>
+        <v>1057.6923076923076</v>
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.3">
@@ -10776,10 +11001,11 @@
         <v>759</v>
       </c>
       <c r="N108">
-        <v>100</v>
+        <v>301</v>
       </c>
       <c r="O108">
-        <v>3950</v>
+        <f t="shared" si="6"/>
+        <v>1312.2923588039866</v>
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.3">
@@ -10823,10 +11049,11 @@
         <v>766</v>
       </c>
       <c r="N109">
-        <v>100</v>
+        <v>288</v>
       </c>
       <c r="O109">
-        <v>3300</v>
+        <f t="shared" si="6"/>
+        <v>1145.8333333333333</v>
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.3">
@@ -10870,10 +11097,11 @@
         <v>773</v>
       </c>
       <c r="N110">
-        <v>100</v>
+        <v>247</v>
       </c>
       <c r="O110">
-        <v>2280</v>
+        <f t="shared" si="6"/>
+        <v>923.07692307692309</v>
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.3">
@@ -10917,10 +11145,11 @@
         <v>779</v>
       </c>
       <c r="N111">
-        <v>100</v>
+        <v>492</v>
       </c>
       <c r="O111">
-        <v>5650</v>
+        <f t="shared" si="6"/>
+        <v>1148.3739837398373</v>
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.3">
@@ -10964,10 +11193,11 @@
         <v>785</v>
       </c>
       <c r="N112">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="O112">
-        <v>930</v>
+        <f t="shared" si="6"/>
+        <v>1162.5</v>
       </c>
       <c r="P112">
         <v>1376.0892519970951</v>
@@ -10988,7 +11218,8 @@
         <v>453.16355551774018</v>
       </c>
       <c r="V112">
-        <v>-0.98438907225766925</v>
+        <f t="shared" ref="V112:V122" si="9">(O112-P112)/U112</f>
+        <v>-0.47132927923356271</v>
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.3">
@@ -11032,10 +11263,11 @@
         <v>793</v>
       </c>
       <c r="N113">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="O113">
-        <v>300</v>
+        <f t="shared" si="6"/>
+        <v>189.87341772151899</v>
       </c>
       <c r="P113">
         <v>213.9843279083785</v>
@@ -11056,7 +11288,8 @@
         <v>34.0979761874164</v>
       </c>
       <c r="V113">
-        <v>2.5226034418830081</v>
+        <f t="shared" si="9"/>
+        <v>-0.70710678118654624</v>
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.3">
@@ -11100,10 +11333,11 @@
         <v>800</v>
       </c>
       <c r="N114">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="O114">
-        <v>320</v>
+        <f t="shared" si="6"/>
+        <v>421.05263157894734</v>
       </c>
       <c r="P114">
         <v>530.10101010101016</v>
@@ -11124,7 +11358,8 @@
         <v>89.576769037905592</v>
       </c>
       <c r="V114">
-        <v>-2.3454854685828548</v>
+        <f t="shared" si="9"/>
+        <v>-1.2173734294425997</v>
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.3">
@@ -11168,10 +11403,11 @@
         <v>807</v>
       </c>
       <c r="N115">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="O115">
-        <v>710</v>
+        <f t="shared" si="6"/>
+        <v>628.31858407079642</v>
       </c>
       <c r="P115">
         <v>751.2229702628465</v>
@@ -11192,7 +11428,8 @@
         <v>260.36159237249751</v>
       </c>
       <c r="V115">
-        <v>-0.15832969020971829</v>
+        <f t="shared" si="9"/>
+        <v>-0.47205267517419247</v>
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.3">
@@ -11236,10 +11473,11 @@
         <v>815</v>
       </c>
       <c r="N116">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="O116">
-        <v>870</v>
+        <f t="shared" si="6"/>
+        <v>2121.9512195121952</v>
       </c>
       <c r="P116">
         <v>1755.7478207465431</v>
@@ -11260,7 +11498,8 @@
         <v>476.03179788212628</v>
       </c>
       <c r="V116">
-        <v>-1.860690451115347</v>
+        <f t="shared" si="9"/>
+        <v>0.76928348147098013</v>
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.3">
@@ -11304,10 +11543,11 @@
         <v>823</v>
       </c>
       <c r="N117">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="O117">
-        <v>1950</v>
+        <f t="shared" si="6"/>
+        <v>1234.1772151898733</v>
       </c>
       <c r="P117">
         <v>2009.997450091764</v>
@@ -11328,7 +11568,8 @@
         <v>979.89367171633216</v>
       </c>
       <c r="V117">
-        <v>-6.122853103712337E-2</v>
+        <f t="shared" si="9"/>
+        <v>-0.79173920323722802</v>
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.3">
@@ -11372,10 +11613,11 @@
         <v>831</v>
       </c>
       <c r="N118">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="O118">
-        <v>860</v>
+        <f t="shared" si="6"/>
+        <v>1211.2676056338028</v>
       </c>
       <c r="P118">
         <v>2076.763406991493</v>
@@ -11396,7 +11638,8 @@
         <v>803.75762780923503</v>
       </c>
       <c r="V118">
-        <v>-1.513843682339872</v>
+        <f t="shared" si="9"/>
+        <v>-1.0768119286366613</v>
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.3">
@@ -11440,10 +11683,11 @@
         <v>839</v>
       </c>
       <c r="N119">
-        <v>100</v>
+        <v>460</v>
       </c>
       <c r="O119">
-        <v>6259</v>
+        <f t="shared" si="6"/>
+        <v>1360.6521739130435</v>
       </c>
       <c r="P119">
         <v>2553.1092436974791</v>
@@ -11464,7 +11708,8 @@
         <v>370.59647977007859</v>
       </c>
       <c r="V119">
-        <v>9.9998002101954366</v>
+        <f t="shared" si="9"/>
+        <v>-3.2176697159245733</v>
       </c>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.3">
@@ -11508,10 +11753,11 @@
         <v>847</v>
       </c>
       <c r="N120">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="O120">
-        <v>1650</v>
+        <f t="shared" si="6"/>
+        <v>1964.2857142857142</v>
       </c>
       <c r="P120">
         <v>4434.110835108374</v>
@@ -11532,7 +11778,8 @@
         <v>1170.100008873562</v>
       </c>
       <c r="V120">
-        <v>-2.3793785266172209</v>
+        <f t="shared" si="9"/>
+        <v>-2.1107812170690639</v>
       </c>
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.3">
@@ -11576,10 +11823,11 @@
         <v>854</v>
       </c>
       <c r="N121">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="O121">
-        <v>5350</v>
+        <f t="shared" si="6"/>
+        <v>3057.1428571428573</v>
       </c>
       <c r="P121">
         <v>3365.3682185237321</v>
@@ -11600,7 +11848,8 @@
         <v>788.31734625973013</v>
       </c>
       <c r="V121">
-        <v>2.5175543718435232</v>
+        <f t="shared" si="9"/>
+        <v>-0.39099147423723257</v>
       </c>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.3">
@@ -11644,10 +11893,11 @@
         <v>861</v>
       </c>
       <c r="N122">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="O122">
-        <v>4140</v>
+        <f t="shared" si="6"/>
+        <v>3450</v>
       </c>
       <c r="P122">
         <v>4838.5555771127874</v>
@@ -11668,7 +11918,8 @@
         <v>1470.631252523546</v>
       </c>
       <c r="V122">
-        <v>-0.47500389775757329</v>
+        <f t="shared" si="9"/>
+        <v>-0.94419017325388677</v>
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.3">
@@ -11712,10 +11963,11 @@
         <v>869</v>
       </c>
       <c r="N123">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="O123">
-        <v>7880</v>
+        <f t="shared" si="6"/>
+        <v>1313.3333333333333</v>
       </c>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.3">
@@ -11759,10 +12011,11 @@
         <v>875</v>
       </c>
       <c r="N124">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="O124">
-        <v>3560</v>
+        <f t="shared" si="6"/>
+        <v>3178.5714285714284</v>
       </c>
       <c r="P124">
         <v>2597.2756410256411</v>
@@ -11783,7 +12036,8 @@
         <v>299.61032041516319</v>
       </c>
       <c r="V124">
-        <v>3.2132549961574539</v>
+        <f t="shared" ref="V124:V133" si="10">(O124-P124)/U124</f>
+        <v>1.940172777560863</v>
       </c>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.3">
@@ -11827,10 +12081,11 @@
         <v>883</v>
       </c>
       <c r="N125">
-        <v>100</v>
+        <v>561</v>
       </c>
       <c r="O125">
-        <v>4300</v>
+        <f t="shared" si="6"/>
+        <v>766.48841354723709</v>
       </c>
       <c r="P125">
         <v>2276.1145025573342</v>
@@ -11851,7 +12106,8 @@
         <v>75.782152039199175</v>
       </c>
       <c r="V125">
-        <v>26.706624752432319</v>
+        <f t="shared" si="10"/>
+        <v>-19.920601993847125</v>
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.3">
@@ -11895,10 +12151,11 @@
         <v>890</v>
       </c>
       <c r="N126">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="O126">
-        <v>1150</v>
+        <f t="shared" si="6"/>
+        <v>934.95934959349597</v>
       </c>
       <c r="P126">
         <v>1167.2330199350499</v>
@@ -11919,7 +12176,8 @@
         <v>360.100922734314</v>
       </c>
       <c r="V126">
-        <v>-4.7856083800608913E-2</v>
+        <f t="shared" si="10"/>
+        <v>-0.64502381326283842</v>
       </c>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.3">
@@ -11963,10 +12221,11 @@
         <v>897</v>
       </c>
       <c r="N127">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="O127">
-        <v>1700</v>
+        <f t="shared" si="6"/>
+        <v>1931.8181818181818</v>
       </c>
       <c r="P127">
         <v>2662.574094630224</v>
@@ -11987,7 +12246,8 @@
         <v>547.58710720242982</v>
       </c>
       <c r="V127">
-        <v>-1.757846527008138</v>
+        <f t="shared" si="10"/>
+        <v>-1.3345016769028846</v>
       </c>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.3">
@@ -12031,10 +12291,11 @@
         <v>904</v>
       </c>
       <c r="N128">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="O128">
-        <v>2600</v>
+        <f t="shared" si="6"/>
+        <v>1635.2201257861636</v>
       </c>
       <c r="P128">
         <v>3038.4051469453138</v>
@@ -12055,7 +12316,8 @@
         <v>1105.2096537557579</v>
       </c>
       <c r="V128">
-        <v>-0.39667147808156727</v>
+        <f t="shared" si="10"/>
+        <v>-1.26960981239243</v>
       </c>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.3">
@@ -12099,10 +12361,11 @@
         <v>911</v>
       </c>
       <c r="N129">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O129">
-        <v>1670</v>
+        <f t="shared" si="6"/>
+        <v>1757.8947368421052</v>
       </c>
       <c r="P129">
         <v>2306.8397478925299</v>
@@ -12123,7 +12386,8 @@
         <v>1114.2689839223101</v>
       </c>
       <c r="V129">
-        <v>-0.57153143189071487</v>
+        <f t="shared" si="10"/>
+        <v>-0.49265035549863123</v>
       </c>
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.3">
@@ -12167,10 +12431,11 @@
         <v>918</v>
       </c>
       <c r="N130">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="O130">
-        <v>1000</v>
+        <f t="shared" si="6"/>
+        <v>1219.5121951219512</v>
       </c>
       <c r="P130">
         <v>2228.9358039358581</v>
@@ -12191,7 +12456,8 @@
         <v>580.5565059722403</v>
       </c>
       <c r="V130">
-        <v>-2.1168237566777348</v>
+        <f t="shared" si="10"/>
+        <v>-1.7387172453152615</v>
       </c>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.3">
@@ -12235,10 +12501,11 @@
         <v>924</v>
       </c>
       <c r="N131">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O131">
-        <v>800</v>
+        <f t="shared" ref="O131:O153" si="11">L131/N131</f>
+        <v>879.12087912087907</v>
       </c>
       <c r="P131">
         <v>2047.694783414453</v>
@@ -12259,7 +12526,8 @@
         <v>869.60038202553324</v>
       </c>
       <c r="V131">
-        <v>-1.434790978941656</v>
+        <f t="shared" si="10"/>
+        <v>-1.343805647338437</v>
       </c>
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.3">
@@ -12303,10 +12571,11 @@
         <v>930</v>
       </c>
       <c r="N132">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O132">
-        <v>700</v>
+        <f t="shared" si="11"/>
+        <v>1076.9230769230769</v>
       </c>
       <c r="P132">
         <v>1870.603588040321</v>
@@ -12327,7 +12596,8 @@
         <v>932.93854967029949</v>
       </c>
       <c r="V132">
-        <v>-1.2547488668508899</v>
+        <f t="shared" si="10"/>
+        <v>-0.85073182086615551</v>
       </c>
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.3">
@@ -12371,10 +12641,11 @@
         <v>937</v>
       </c>
       <c r="N133">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="O133">
-        <v>880</v>
+        <f t="shared" si="11"/>
+        <v>800</v>
       </c>
       <c r="P133">
         <v>3516.9191684278521</v>
@@ -12395,7 +12666,8 @@
         <v>1311.788178297948</v>
       </c>
       <c r="V133">
-        <v>-2.0101714682695722</v>
+        <f t="shared" si="10"/>
+        <v>-2.0711569240950691</v>
       </c>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.3">
@@ -12439,10 +12711,11 @@
         <v>945</v>
       </c>
       <c r="N134">
-        <v>100</v>
+        <v>541</v>
       </c>
       <c r="O134">
-        <v>7400</v>
+        <f t="shared" si="11"/>
+        <v>1367.8373382624768</v>
       </c>
       <c r="P134">
         <v>2750</v>
@@ -12501,10 +12774,11 @@
         <v>953</v>
       </c>
       <c r="N135">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="O135">
-        <v>980</v>
+        <f t="shared" si="11"/>
+        <v>803.27868852459017</v>
       </c>
       <c r="P135">
         <v>1187.486694577804</v>
@@ -12525,7 +12799,8 @@
         <v>604.4694839270511</v>
       </c>
       <c r="V135">
-        <v>-0.34325420901288012</v>
+        <f t="shared" ref="V135:V137" si="12">(O135-P135)/U135</f>
+        <v>-0.63561191469440825</v>
       </c>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.3">
@@ -12569,10 +12844,11 @@
         <v>961</v>
       </c>
       <c r="N136">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="O136">
-        <v>1200</v>
+        <f t="shared" si="11"/>
+        <v>1379.3103448275863</v>
       </c>
       <c r="P136">
         <v>2404.8881811733158</v>
@@ -12593,7 +12869,8 @@
         <v>923.39592255776222</v>
       </c>
       <c r="V136">
-        <v>-1.304844597792715</v>
+        <f t="shared" si="12"/>
+        <v>-1.1106588314846879</v>
       </c>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.3">
@@ -12637,10 +12914,11 @@
         <v>969</v>
       </c>
       <c r="N137">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="O137">
-        <v>1850</v>
+        <f t="shared" si="11"/>
+        <v>1581.1965811965813</v>
       </c>
       <c r="P137">
         <v>2349.9887973650261</v>
@@ -12661,7 +12939,8 @@
         <v>886.29650151000635</v>
       </c>
       <c r="V137">
-        <v>-0.56413265370356558</v>
+        <f t="shared" si="12"/>
+        <v>-0.86742102090963191</v>
       </c>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.3">
@@ -12705,10 +12984,11 @@
         <v>977</v>
       </c>
       <c r="N138">
-        <v>100</v>
+        <v>275</v>
       </c>
       <c r="O138">
-        <v>4200</v>
+        <f t="shared" si="11"/>
+        <v>1527.2727272727273</v>
       </c>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.3">
@@ -12752,10 +13032,11 @@
         <v>984</v>
       </c>
       <c r="N139">
-        <v>100</v>
+        <v>509</v>
       </c>
       <c r="O139">
-        <v>6050</v>
+        <f t="shared" si="11"/>
+        <v>1188.6051080550099</v>
       </c>
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.3">
@@ -12799,10 +13080,11 @@
         <v>991</v>
       </c>
       <c r="N140">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="O140">
-        <v>5300</v>
+        <f t="shared" si="11"/>
+        <v>1060</v>
       </c>
       <c r="P140">
         <v>1150</v>
@@ -12861,10 +13143,11 @@
         <v>999</v>
       </c>
       <c r="N141">
-        <v>100</v>
+        <v>254</v>
       </c>
       <c r="O141">
-        <v>2860</v>
+        <f t="shared" si="11"/>
+        <v>1125.9842519685039</v>
       </c>
       <c r="P141">
         <v>3153.8461538461538</v>
@@ -12885,7 +13168,8 @@
         <v>2610.8558074580219</v>
       </c>
       <c r="V141">
-        <v>-0.1125478293388588</v>
+        <f t="shared" ref="V141:V151" si="13">(O141-P141)/U141</f>
+        <v>-0.77670390531908162</v>
       </c>
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.3">
@@ -12929,10 +13213,11 @@
         <v>1007</v>
       </c>
       <c r="N142">
-        <v>100</v>
+        <v>351</v>
       </c>
       <c r="O142">
-        <v>2920</v>
+        <f t="shared" si="11"/>
+        <v>831.90883190883187</v>
       </c>
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.3">
@@ -12976,10 +13261,11 @@
         <v>1013</v>
       </c>
       <c r="N143">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="O143">
-        <v>940</v>
+        <f t="shared" si="11"/>
+        <v>1010.752688172043</v>
       </c>
       <c r="P143">
         <v>1562.5</v>
@@ -13038,10 +13324,11 @@
         <v>1020</v>
       </c>
       <c r="N144">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="O144">
-        <v>500</v>
+        <f t="shared" si="11"/>
+        <v>581.39534883720933</v>
       </c>
       <c r="P144">
         <v>779.40199335548175</v>
@@ -13062,7 +13349,8 @@
         <v>442.75631713949321</v>
       </c>
       <c r="V144">
-        <v>-0.63105139901923601</v>
+        <f t="shared" si="13"/>
+        <v>-0.44721359549995798</v>
       </c>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.3">
@@ -13106,10 +13394,11 @@
         <v>1027</v>
       </c>
       <c r="N145">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="O145">
-        <v>2100</v>
+        <f t="shared" si="11"/>
+        <v>893.61702127659578</v>
       </c>
       <c r="P145">
         <v>1842.5678397480499</v>
@@ -13130,7 +13419,8 @@
         <v>577.9151194875509</v>
       </c>
       <c r="V145">
-        <v>0.44544977553143178</v>
+        <f t="shared" si="13"/>
+        <v>-1.6420245577117072</v>
       </c>
     </row>
     <row r="146" spans="1:22" x14ac:dyDescent="0.3">
@@ -13174,10 +13464,11 @@
         <v>1035</v>
       </c>
       <c r="N146">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="O146">
-        <v>550</v>
+        <f t="shared" si="11"/>
+        <v>887.09677419354841</v>
       </c>
       <c r="P146">
         <v>1376.8817204301081</v>
@@ -13198,7 +13489,8 @@
         <v>692.66051361391919</v>
       </c>
       <c r="V146">
-        <v>-1.193776322134918</v>
+        <f t="shared" si="13"/>
+        <v>-0.70710678118654824</v>
       </c>
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.3">
@@ -13242,10 +13534,11 @@
         <v>1043</v>
       </c>
       <c r="N147">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="O147">
-        <v>1100</v>
+        <f t="shared" si="11"/>
+        <v>572.91666666666663</v>
       </c>
       <c r="P147">
         <v>571.1355785837651</v>
@@ -13266,7 +13559,8 @@
         <v>1.6259035331813141</v>
       </c>
       <c r="V147">
-        <v>325.2741694837427</v>
+        <f t="shared" si="13"/>
+        <v>1.0954451150103464</v>
       </c>
     </row>
     <row r="148" spans="1:22" x14ac:dyDescent="0.3">
@@ -13310,10 +13604,11 @@
         <v>1050</v>
       </c>
       <c r="N148">
-        <v>100</v>
+        <v>243</v>
       </c>
       <c r="O148">
-        <v>690</v>
+        <f t="shared" si="11"/>
+        <v>283.95061728395063</v>
       </c>
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.3">
@@ -13357,10 +13652,11 @@
         <v>1057</v>
       </c>
       <c r="N149">
-        <v>100</v>
+        <v>525</v>
       </c>
       <c r="O149">
-        <v>2900</v>
+        <f t="shared" si="11"/>
+        <v>552.38095238095241</v>
       </c>
       <c r="P149">
         <v>1150.257678829108</v>
@@ -13381,7 +13677,8 @@
         <v>185.023950766844</v>
       </c>
       <c r="V149">
-        <v>9.4568422840338755</v>
+        <f t="shared" si="13"/>
+        <v>-3.2313477469820313</v>
       </c>
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.3">
@@ -13425,10 +13722,11 @@
         <v>1064</v>
       </c>
       <c r="N150">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="O150">
-        <v>1400</v>
+        <f t="shared" si="11"/>
+        <v>673.07692307692309</v>
       </c>
       <c r="P150">
         <v>911.60401124314524</v>
@@ -13449,7 +13747,8 @@
         <v>91.573474398176941</v>
       </c>
       <c r="V150">
-        <v>5.3333783824039092</v>
+        <f t="shared" si="13"/>
+        <v>-2.6047618017534866</v>
       </c>
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.3">
@@ -13493,10 +13792,11 @@
         <v>1072</v>
       </c>
       <c r="N151">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="O151">
-        <v>1550</v>
+        <f t="shared" si="11"/>
+        <v>1230.1587301587301</v>
       </c>
       <c r="P151">
         <v>1208.958382689726</v>
@@ -13517,7 +13817,8 @@
         <v>45.509667226004659</v>
       </c>
       <c r="V151">
-        <v>7.4938279732223476</v>
+        <f t="shared" si="13"/>
+        <v>0.46584272663918797</v>
       </c>
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.3">
@@ -13555,10 +13856,11 @@
         <v>305000</v>
       </c>
       <c r="N152">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="O152">
-        <v>3050</v>
+        <f t="shared" si="11"/>
+        <v>1967.741935483871</v>
       </c>
     </row>
     <row r="153" spans="1:22" x14ac:dyDescent="0.3">
@@ -13596,10 +13898,11 @@
         <v>1082</v>
       </c>
       <c r="N153">
-        <v>100</v>
+        <v>713</v>
       </c>
       <c r="O153">
-        <v>14500</v>
+        <f t="shared" si="11"/>
+        <v>2033.6605890603087</v>
       </c>
     </row>
   </sheetData>
